--- a/medicine/Handicap/Les_Rencontres_du_Papotin/Les_Rencontres_du_Papotin.xlsx
+++ b/medicine/Handicap/Les_Rencontres_du_Papotin/Les_Rencontres_du_Papotin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Rencontres du Papotin est une émission de télévision française où une personnalité répond à des questions de journalistes non-professionnels porteurs du trouble du spectre autistique. L'échange est animé par Julien Bancilhon, rédacteur en chef de la publication et psychologue.
 Elle est diffusée depuis le 3 septembre 2022 certains samedis à 20 h 30 sur France 2, après le journal de 20 heures.
-Elle est rediffusée depuis le 5 octobre 2023 le dimanche à 14 h sur La Une, sans respecter l'ordre original de diffusion[1].
-L'émission adapte le journal Le Papotin sur l'idée des réalisateurs Olivier Nakache et Éric Toledano, en invitant une personnalité médiatique face aux journalistes de la rédaction du journal[2].
+Elle est rediffusée depuis le 5 octobre 2023 le dimanche à 14 h sur La Une, sans respecter l'ordre original de diffusion.
+L'émission adapte le journal Le Papotin sur l'idée des réalisateurs Olivier Nakache et Éric Toledano, en invitant une personnalité médiatique face aux journalistes de la rédaction du journal.
 </t>
         </is>
       </c>
@@ -515,12 +527,14 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre les premières idées et la première diffusion, il s'est écoulé trois ans de réflexions et d'essais infructueux pour trouver une formule en accord avec l'esprit du journal et de sa rédaction.
 Julien Bancilhon, son rédacteur en chef, commente :
 « Au début on a eu du mal à se rencontrer, c’était cordial mais ça ne marchait pas. Le Papotin, c’est un joyeux bordel, difficile à cadrer. Monter une émission en claquant des doigts, faire un truc carré avec un plateau, des questions précises et répétées, un temps de parole précis pour chacun, ça ne marche pas ici »
-Les tournages durent trois heures quand l'émission finale ne dure que trente minutes environ[3].
+Les tournages durent trois heures quand l'émission finale ne dure que trente minutes environ.
 </t>
         </is>
       </c>
@@ -546,12 +560,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Saison 1 (2022-2023)</t>
+          <t>Saison 2 (2023-2024)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Légende
+Les plus hauts chiffres d'audience
+</t>
         </is>
       </c>
     </row>
@@ -576,47 +598,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Saison 2 (2023-2024)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences
-Légende
-Les plus hauts chiffres d'audience
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_Rencontres_du_Papotin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Rencontres_du_Papotin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Adaptations à l'étranger</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'émission vendue à l'international sous le titre The A Talk[38].
-Elle est adaptée dans plusieurs pays : au Danemark (En Særlig Samtale), en Espagne (100% Unicos) et en Pologne (Autentyczni) en 2023[39], puis au Royaume-Uni (The Assembly) en 2024[40].
-Une adaptation australienne est prévue[41].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'émission vendue à l'international sous le titre The A Talk.
+Elle est adaptée dans plusieurs pays : au Danemark (En Særlig Samtale), en Espagne (100% Unicos) et en Pologne (Autentyczni) en 2023, puis au Royaume-Uni (The Assembly) en 2024.
+Une adaptation australienne est prévue.
 </t>
         </is>
       </c>
